--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1367"/>
+  <dimension ref="A1:H1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35783,13 +35783,39 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1368"/>
+  <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35809,13 +35809,39 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1369"/>
+  <dimension ref="A1:H1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35793,7 +35793,7 @@
         <v>8.82</v>
       </c>
       <c r="E1367" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F1367" t="n">
         <v>7.5</v>
@@ -35835,13 +35835,39 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,15 +44111,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,15 +44143,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44175,15 +44175,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,15 +44207,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44271,15 +44271,47 @@
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44303,15 +44303,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,15 +44335,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44367,15 +44367,47 @@
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,15 +44399,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44431,15 +44431,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,15 +44463,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>12</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44495,15 +44495,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44527,15 +44527,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,7 +43248,7 @@
         <v>44136</v>
       </c>
       <c r="B1344" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C1344" t="n">
         <v>9.4</v>
@@ -43269,10 +43269,10 @@
         <v>9.5</v>
       </c>
       <c r="I1344" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="J1344" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="1345">
@@ -43571,7 +43571,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C1354" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D1354" t="n">
         <v>7.92</v>
@@ -43589,10 +43589,10 @@
         <v>5.6</v>
       </c>
       <c r="I1354" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="J1354" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="1355">
@@ -44182,7 +44182,7 @@
         <v>9.1</v>
       </c>
       <c r="D1373" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="E1373" t="n">
         <v>10.2</v>
@@ -44197,10 +44197,10 @@
         <v>9.5</v>
       </c>
       <c r="I1373" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="J1373" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="1374">
@@ -44559,15 +44559,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44591,15 +44591,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44623,15 +44623,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44655,15 +44655,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44687,15 +44686,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44718,15 +44718,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44750,15 +44750,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1392"/>
+  <dimension ref="A1:J1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44792,6 +44792,20 @@
       <c r="I1392" t="inlineStr"/>
       <c r="J1392" t="inlineStr"/>
     </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B1393" t="inlineStr"/>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44782,29 +44782,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>10.63</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>14.2</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
